--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3373500.163787484</v>
+        <v>3477679.798238556</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>340.9054364638988</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>62.45439117602642</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657097</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -820,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>111.2109412408482</v>
       </c>
       <c r="G4" t="n">
-        <v>58.28185552386435</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>33.38304376059015</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>219.7549177952603</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -981,7 +983,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804553998</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1057,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>38.86021123271046</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>22.81766359316401</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>84.37088477689312</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>30.43365000154791</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>114.0495374903446</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>195.3153380960386</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569552</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1531,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>246.4755938422912</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>65.56423921895201</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>64.35711883683385</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2090,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,19 +2134,19 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2239,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>29.95900124023845</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>19.91555826189101</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2378,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2479,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571659</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>80.67842139643689</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>4.019807611472697</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>80.90831282609541</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>115.7228684476128</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>88.27810958517587</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710073</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187864</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695506</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576182</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701347</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174128</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784688</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560534</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819371</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986276</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>38.61213096655185</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465689</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.421048022931</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922686</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>217.405450327288</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892439</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238278</v>
       </c>
       <c r="W34" t="n">
-        <v>1.594095449514675</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890369</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3317,10 +3319,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824217</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3560,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>64.36993339924462</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3986,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4031,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4138,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>87.2147151485299</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>141.5502843483916</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -4189,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>1980.946859214235</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1611.984342273823</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1253.718643667072</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>867.9303910688282</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839474</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4349,31 +4351,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="X2" t="n">
-        <v>2008.890142568492</v>
+        <v>2367.546699278356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1618.75081059268</v>
+        <v>2367.546699278356</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811102</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999832</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387319</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332764</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601614</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
         <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125858</v>
@@ -4437,19 +4439,19 @@
         <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297194</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199867</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471665</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266132</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501178</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>739.2385409879461</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C4" t="n">
-        <v>570.3023580600392</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="D4" t="n">
-        <v>420.1857186477034</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="E4" t="n">
-        <v>272.2726250653103</v>
+        <v>422.3892644776452</v>
       </c>
       <c r="F4" t="n">
-        <v>125.3826775674</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962294</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596508</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588487</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886963</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068862</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.966238459645</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1712.341567565139</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810557</v>
@@ -4580,13 +4582,13 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4598,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866152</v>
+        <v>2739.810011970445</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605072</v>
+        <v>2366.344253709365</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.941407629261</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>364.5418494269123</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269123</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>631.784138943829</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>631.784138943829</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>592.5314003249296</v>
+        <v>631.469835781224</v>
       </c>
       <c r="X7" t="n">
-        <v>364.5418494269123</v>
+        <v>403.4802848832067</v>
       </c>
       <c r="Y7" t="n">
-        <v>364.5418494269123</v>
+        <v>380.4321398396066</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1661.138951213863</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C8" t="n">
-        <v>1292.176434273451</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
-        <v>1292.176434273451</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>906.3881816752066</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4799,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3294.864761001546</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3088.887013385769</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3088.887013385769</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>3088.887013385769</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189674</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.138951213863</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>805.6854527976353</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>583.9188373671614</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U10" t="n">
-        <v>583.9188373671614</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V10" t="n">
-        <v>583.9188373671614</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="W10" t="n">
-        <v>294.5016673302008</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="X10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168599</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>562.8579153358619</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1058.183521551621</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1655.562009178173</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5221,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2380.736579318693</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2380.736579318693</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2161.135114341634</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1872.059887685832</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1617.375399479945</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.958229442984</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.968678544967</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>879.1760994014371</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,10 +5509,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111716</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1965.532750177311</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5698,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2314.910189088387</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2095.308724111328</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1806.233497455525</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>813.3497091711303</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5835,19 +5837,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5887,25 +5889,25 @@
         <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474266</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>113.9333885650335</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5978,25 +5980,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192508</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111707</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6005,31 +6007,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6072,19 +6074,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>317.0218491516696</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.3100179938677</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
@@ -6184,13 +6186,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="26">
@@ -6212,28 +6214,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6248,7 +6250,7 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,22 +6299,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N27" t="n">
         <v>1577.52840832642</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>576.8388927589092</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>407.9027098310023</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310023</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6406,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2442.902671851501</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2260.047837506405</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2040.446372529346</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1751.371145873544</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1496.686657667657</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1207.269487630696</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X28" t="n">
-        <v>979.2799367326791</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>758.4873575891489</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245705</v>
+        <v>562.8579153358619</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098242</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819173</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6646,25 +6648,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924459</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718572</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783594</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640064</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
@@ -6701,7 +6703,7 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,40 +6712,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803938</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>801.6605733532801</v>
+        <v>763.7541388327679</v>
       </c>
       <c r="C34" t="n">
-        <v>632.7243904253733</v>
+        <v>594.8179559048613</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253733</v>
+        <v>555.8158034133947</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310019</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330917</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.052681478296</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038349</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797753</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603204</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947402</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741515</v>
       </c>
       <c r="W34" t="n">
-        <v>1432.091168225067</v>
+        <v>1394.184733704554</v>
       </c>
       <c r="X34" t="n">
-        <v>1204.10161732705</v>
+        <v>1166.195182806537</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.3090381835199</v>
+        <v>945.4026036630074</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6919,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6932,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,22 +7019,22 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>739.5354516872161</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>762.547769317909</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>697.5276345711973</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7391,37 +7393,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7634,64 +7636,64 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>802.9288273958739</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C46" t="n">
-        <v>633.992644467967</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D46" t="n">
-        <v>633.992644467967</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>486.0795508855739</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797747</v>
@@ -7837,19 +7839,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.369871369644</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.5772922261136</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
   </sheetData>
@@ -23419,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>39.70888054695297</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.8110074911696756</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>116.6691671648107</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>118.6564717779739</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>125.5054897610402</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.5874149221286302</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>62.35543909864896</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>205.6146855104956</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>32.89260457059954</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>58.1558530613933</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>110.0033420516603</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462236</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856529</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012143</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016444</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>284.9289028870763</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>72.11969353038566</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>102.8768876993832</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>116.6691671648107</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>61.40075786968245</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>3.870763674539631</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>680534.5999045508</v>
+        <v>680534.5999045506</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>680534.5999045506</v>
+        <v>680534.5999045507</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>680534.5999045506</v>
+        <v>680534.5999045507</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>680534.5999045506</v>
+        <v>680534.5999045507</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>680534.5999045507</v>
+        <v>680534.5999045508</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>680534.5999045506</v>
+        <v>680534.5999045507</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>680534.5999045508</v>
+        <v>680534.5999045506</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>680534.5999045507</v>
+        <v>680534.5999045508</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>680534.5999045506</v>
+        <v>680534.5999045507</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>680534.5999045506</v>
+        <v>680534.5999045507</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="G2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="G2" t="n">
-        <v>746610.6047132551</v>
-      </c>
       <c r="H2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132557</v>
       </c>
       <c r="I2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="L2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="N2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132552</v>
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405246</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687972</v>
       </c>
       <c r="F4" t="n">
         <v>15436.64000687967</v>
@@ -26433,31 +26435,31 @@
         <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687965</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687965</v>
+        <v>15436.64000687988</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770811.7932685764</v>
+        <v>-770811.7932685763</v>
       </c>
       <c r="C6" t="n">
-        <v>557932.9524590167</v>
+        <v>557932.9524590169</v>
       </c>
       <c r="D6" t="n">
-        <v>557932.9524590165</v>
+        <v>557932.9524590162</v>
       </c>
       <c r="E6" t="n">
-        <v>304638.9730751136</v>
+        <v>304638.9730751131</v>
       </c>
       <c r="F6" t="n">
-        <v>630051.4348824685</v>
+        <v>630051.4348824688</v>
       </c>
       <c r="G6" t="n">
         <v>630051.4348824683</v>
       </c>
       <c r="H6" t="n">
-        <v>630051.4348824689</v>
+        <v>630051.4348824688</v>
       </c>
       <c r="I6" t="n">
         <v>630051.4348824685</v>
       </c>
       <c r="J6" t="n">
-        <v>412520.2324851911</v>
+        <v>412520.2324851912</v>
       </c>
       <c r="K6" t="n">
-        <v>630051.4348824685</v>
+        <v>630051.4348824687</v>
       </c>
       <c r="L6" t="n">
-        <v>630051.4348824685</v>
+        <v>630051.4348824681</v>
       </c>
       <c r="M6" t="n">
         <v>544996.4069469568</v>
@@ -26558,7 +26560,7 @@
         <v>630051.4348824685</v>
       </c>
       <c r="O6" t="n">
-        <v>630051.4348824685</v>
+        <v>630051.4348824688</v>
       </c>
       <c r="P6" t="n">
         <v>630051.4348824684</v>
@@ -26692,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,7 +26715,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="K4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>65.97060927781263</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>307.2767095024426</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>34.21010678208305</v>
       </c>
       <c r="G4" t="n">
-        <v>107.7439527351639</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>331.8898480104174</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>129.4860509221527</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27701,7 +27703,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27777,22 +27779,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27828,19 +27830,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>247.6627871038805</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>195.7669897589308</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>322.5051609648183</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>78.75411178662793</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28026,7 +28028,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>75.71948784109726</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>56.82230522778943</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="12">
@@ -29323,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-5.958360270247413e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29746,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29797,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-13</v>
       </c>
     </row>
     <row r="35">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233467</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31841,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4622569139906</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>245.8118639189577</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>279.2419622547056</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>399.0581126127094</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32257,7 +32259,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32309,13 +32311,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32327,7 +32329,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>699.0496615458086</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32336,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32467,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32555,7 +32557,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32567,10 +32569,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q21" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32792,7 +32794,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32804,10 +32806,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32968,7 +32970,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -33026,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>641.2555750770849</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
@@ -33178,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,13 +33259,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551105</v>
+        <v>458.6770173132157</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33275,16 +33277,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33494,7 +33496,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,25 +33505,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>601.0567753070487</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33661,7 +33663,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175677</v>
@@ -33737,13 +33739,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>300.5543663814921</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
@@ -33752,10 +33754,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33968,16 +33970,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>404.0195168876591</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33986,13 +33988,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,7 +34207,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,7 +34219,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
@@ -34229,7 +34231,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>211.3773391483997</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34366,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817577</v>
@@ -34378,7 +34380,7 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159405</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460029</v>
@@ -34442,7 +34444,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,13 +34456,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34469,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034295</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966713</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840383</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106942</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014226</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013284</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>322.6208179396316</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>103.6778299969394</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>140.6875824748315</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>265.0837051983791</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35905,7 +35907,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35975,7 +35977,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>556.4534171013642</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36203,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,10 +36217,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q21" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789214</v>
@@ -36440,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,10 +36454,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789214</v>
@@ -36616,7 +36618,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,16 +36676,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>509.9138629937516</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
@@ -36826,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075146</v>
+        <v>320.8355783388567</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36923,16 +36925,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37153,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>469.7150632237154</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295364</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191317</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010454</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899077</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060457</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066252</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998986</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37311,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M35" t="n">
         <v>735.300110790295</v>
@@ -37385,13 +37387,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>161.9999866016179</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>439.190340064064</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
@@ -37400,10 +37402,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789214</v>
@@ -37616,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>265.4651371077849</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37636,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789214</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,7 +37867,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
@@ -37877,7 +37879,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>71.39556506237817</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789214</v>
@@ -38014,7 +38016,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K44" t="n">
         <v>479.4543240367771</v>
@@ -38026,7 +38028,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193496</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
         <v>696.4886512243162</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,13 +38104,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>220.9409070342396</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3477679.798238556</v>
+        <v>3473667.188224563</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7859941.482472573</v>
+        <v>7859941.482472574</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>370.0648965483574</v>
       </c>
       <c r="F2" t="n">
-        <v>340.9054364638988</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657088</v>
       </c>
       <c r="H3" t="n">
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>111.2109412408482</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>194.7787730209288</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>203.8751166288491</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>219.7549177952603</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -983,7 +983,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804553998</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>20.95866062610959</v>
       </c>
       <c r="Y7" t="n">
-        <v>22.81766359316401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>275.9285499140938</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>30.43365000154791</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>195.3153380960386</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.930370072261</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569552</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>104.7777418077832</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>65.56423921895201</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>110.017717176686</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>64.35711883683385</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>29.95900124023845</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
-        <v>80.67842139643689</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2724,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>80.90831282609541</v>
+        <v>240.0633098883605</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>88.27810958517587</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710073</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187864</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695506</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576182</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784688</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>38.61213096655185</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465689</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.421048022931</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922686</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890369</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3319,10 +3319,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>95.12712756824217</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428216</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>41.55695577161251</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>87.2147151485299</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>161.355549430153</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1980.946859214235</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1611.984342273823</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="D2" t="n">
-        <v>1253.718643667072</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="E2" t="n">
-        <v>867.9303910688282</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
         <v>523.5814653477182</v>
@@ -4333,7 +4333,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4357,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2741.012457539436</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2367.546699278356</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2367.546699278356</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986295</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>739.2385409879452</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C4" t="n">
-        <v>570.3023580600383</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D4" t="n">
-        <v>570.3023580600383</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E4" t="n">
-        <v>422.3892644776452</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181849</v>
+        <v>532.4548862703364</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1023.012981614817</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1023.012981614817</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>612.0270768252092</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4567,19 +4567,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410102</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2739.810011970445</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2366.344253709365</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y5" t="n">
-        <v>1976.204921733553</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="6">
@@ -4622,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4664,31 +4664,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
         <v>1109.759191501176</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4725,52 +4725,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181845</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W7" t="n">
-        <v>631.469835781224</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X7" t="n">
-        <v>403.4802848832067</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>2196.097994299123</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1827.135477358711</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1468.86977875196</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3294.864761001546</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3088.887013385769</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3088.887013385769</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3088.887013385769</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2736.118358115654</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X8" t="n">
-        <v>2736.118358115654</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.979026139843</v>
+        <v>2582.697834363245</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>212.7293032143256</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>212.7293032143256</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>212.7293032143256</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4992,22 +4992,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>410.0175235133545</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>212.7293032143256</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>212.7293032143256</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>212.7293032143256</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>212.7293032143256</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168599</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5126,22 +5126,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5269,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797176</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5308,7 +5308,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1702.079034721979</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2253.988764961266</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>697.5276345711974</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711974</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>738.560493261518</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>590.6473996791249</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2380.736579318693</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2380.736579318693</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2161.135114341634</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1872.059887685832</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1617.375399479945</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.958229442984</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.968678544967</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y16" t="n">
-        <v>879.1760994014371</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="17">
@@ -5503,52 +5503,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1368.15426255076</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>631.7012443408905</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2314.910189088387</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2095.308724111328</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1806.233497455525</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1551.549009249638</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1262.131839212678</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1034.14228831466</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>813.3497091711303</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5734,16 +5734,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>580.8993044876693</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5983,22 +5983,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6007,31 +6007,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.2707707770323</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>634.3345878491255</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>484.2179484367897</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>484.2179484367897</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.2179484367897</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.0218491516696</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.3100179938677</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6186,13 +6186,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072721</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,55 +6202,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6408,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1419.02150088521</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="29">
@@ -6439,55 +6439,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>562.8579153358619</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362684</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
@@ -6703,7 +6703,7 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6721,31 +6721,31 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327679</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048613</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133947</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310019</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330917</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.052681478296</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038349</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797753</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580262</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603204</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947402</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741515</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704554</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806537</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.4026036630074</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6943,22 +6943,22 @@
         <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7019,25 +7019,25 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,25 +7186,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7241,22 +7241,22 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7268,13 +7268,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7311,31 +7311,31 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797747</v>
@@ -7402,22 +7402,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192501</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7478,40 +7478,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1470.207143961552</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>277.5052172074025</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>135.7933860496006</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797747</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7648,28 +7648,28 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7736,7 +7736,7 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
         <v>2001.151557821488</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.843151638089</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>572.9069687101821</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7848,10 +7848,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.4916164683287</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194173</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>40.64330621514807</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.8110074911696756</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>116.6691671648107</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>118.6564717779739</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5874149221286302</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>205.6146855104956</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>58.1558530613933</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>110.0033420516603</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462236</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856529</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012143</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016444</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>72.11969353038566</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>116.6691671648107</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.2291039219417</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>39.70888054695301</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>61.40075786968245</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>680534.5999045507</v>
+        <v>680534.5999045508</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>680534.5999045507</v>
+        <v>680534.5999045506</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>680534.5999045507</v>
+        <v>680534.5999045506</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>680534.5999045508</v>
+        <v>680534.5999045506</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>680534.5999045507</v>
+        <v>680534.5999045506</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>680534.5999045508</v>
+        <v>680534.5999045507</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>680534.5999045507</v>
+        <v>680534.5999045506</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>680534.5999045507</v>
+        <v>680534.5999045508</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>680534.5999045507</v>
+        <v>680534.5999045506</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="G2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="H2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="I2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="F2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="G2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132557</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132554</v>
-      </c>
       <c r="J2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="O2" t="n">
         <v>746610.6047132555</v>
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>3.014195044670487e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.800799509510398e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.074904503184371e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405256</v>
+      </c>
+      <c r="C4" t="n">
         <v>93596.74410405254</v>
-      </c>
-      <c r="C4" t="n">
-        <v>93596.74410405259</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.6400068797</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687967</v>
@@ -26441,13 +26441,13 @@
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="K4" t="n">
         <v>15436.64000687962</v>
       </c>
-      <c r="K4" t="n">
-        <v>15436.64000687966</v>
-      </c>
       <c r="L4" t="n">
-        <v>15436.64000687988</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
@@ -26524,46 +26524,46 @@
         <v>-770811.7932685763</v>
       </c>
       <c r="C6" t="n">
-        <v>557932.9524590169</v>
+        <v>557932.9524590167</v>
       </c>
       <c r="D6" t="n">
-        <v>557932.9524590162</v>
+        <v>557932.9524590165</v>
       </c>
       <c r="E6" t="n">
-        <v>304638.9730751131</v>
+        <v>304291.5938207567</v>
       </c>
       <c r="F6" t="n">
-        <v>630051.4348824688</v>
+        <v>629704.0556281118</v>
       </c>
       <c r="G6" t="n">
-        <v>630051.4348824683</v>
+        <v>629704.0556281111</v>
       </c>
       <c r="H6" t="n">
-        <v>630051.4348824688</v>
+        <v>629704.0556281115</v>
       </c>
       <c r="I6" t="n">
-        <v>630051.4348824685</v>
+        <v>629704.0556281116</v>
       </c>
       <c r="J6" t="n">
-        <v>412520.2324851912</v>
+        <v>412172.8532308339</v>
       </c>
       <c r="K6" t="n">
-        <v>630051.4348824687</v>
+        <v>629704.0556281114</v>
       </c>
       <c r="L6" t="n">
-        <v>630051.4348824681</v>
+        <v>629704.0556281114</v>
       </c>
       <c r="M6" t="n">
-        <v>544996.4069469568</v>
+        <v>544649.0276925997</v>
       </c>
       <c r="N6" t="n">
-        <v>630051.4348824685</v>
+        <v>629704.0556281114</v>
       </c>
       <c r="O6" t="n">
-        <v>630051.4348824688</v>
+        <v>629704.0556281118</v>
       </c>
       <c r="P6" t="n">
-        <v>630051.4348824684</v>
+        <v>629704.0556281114</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26715,7 +26715,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26804,22 +26804,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099647</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>11.86547352390437</v>
       </c>
       <c r="F2" t="n">
-        <v>65.97060927781263</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>34.21010678208305</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>91.43306518468412</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>207.0466090246044</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>129.4860509221527</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27703,7 +27703,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,19 +27830,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>204.7509947629275</v>
       </c>
       <c r="Y7" t="n">
-        <v>195.7669897589308</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>106.001820158168</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>78.75411178662793</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28064,13 +28064,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>56.82230522778943</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>7.394985773160066e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-5.958360270247413e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>245.8118639189577</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,16 +32074,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
@@ -32095,10 +32095,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>399.0581126127094</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32311,31 +32311,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>675.9520178182473</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,13 +32548,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32785,16 +32785,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,16 +33022,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>458.6770173132157</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33496,16 +33496,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33663,7 +33663,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162548</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175677</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33739,28 +33739,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043702</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34213,28 +34213,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34368,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817577</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34456,10 +34456,10 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>103.6778299969394</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>265.0837051983791</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>533.3557733738029</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410452</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>320.8355783388567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>302.474889585677</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295364</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096352</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010454</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998986</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462675</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
         <v>735.300110790295</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902381</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37861,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.4543240367771</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,10 +38104,10 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3473667.188224563</v>
+        <v>3475427.718527348</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7859941.482472574</v>
+        <v>7859941.482472573</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>370.0648965483574</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>153.7283917236242</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657088</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189229</v>
       </c>
       <c r="U3" t="n">
         <v>225.7871683969286</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,13 +825,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>194.7787730209288</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>203.8751166288491</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>57.29212650174259</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>20.95866062610959</v>
+        <v>131.552212841269</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>275.9285499140938</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>120.6088074159616</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72.08802744677259</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>59.96080325611238</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.930370072261</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444152</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703275</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>104.7777418077832</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,10 +1821,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>94.30373791808249</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.017717176686</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2724,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>172.5936784239533</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>240.0633098883605</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994143001</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3040,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3192,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>27.0291980517616</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>172.3645574474261</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428216</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>109.8058856274582</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3906,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>41.55695577161251</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>140.5758943588665</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790577</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943747</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943747</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1308.370295943747</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
         <v>934.5673701373257</v>
@@ -4327,19 +4327,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3060.033949375028</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2806.503472648865</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2806.503472648865</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2453.73481737875</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2080.269059117671</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1690.129727141859</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986295</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>532.4548862703364</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>363.5187033424295</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>213.4020639300938</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>729.2011216450119</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>729.2011216450119</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>532.4548862703364</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>532.4548862703364</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>532.4548862703364</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>532.4548862703364</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>532.4548862703364</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221567</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1381.278680221567</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1023.012981614817</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1023.012981614817</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>612.0270768252092</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4567,16 +4567,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2697.936093944079</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261501</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285689</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="6">
@@ -4622,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
         <v>66.51211643218342</v>
@@ -4758,19 +4758,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>377.0996507379416</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>87.68248070098099</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>66.51211643218342</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218342</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2196.097994299123</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C8" t="n">
-        <v>1827.135477358711</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="D8" t="n">
-        <v>1468.86977875196</v>
+        <v>985.1133520179762</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>599.3250994197319</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>188.3391946301244</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
         <v>66.51211643218342</v>
@@ -4807,7 +4807,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339056</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X8" t="n">
-        <v>2972.837166339056</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y8" t="n">
-        <v>2582.697834363245</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>739.2385409879457</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>570.3023580600388</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>420.1857186477031</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>420.1857186477031</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>273.2957711497927</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>273.2957711497927</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>127.0785843676505</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362701</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5257,70 +5257,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,22 +5351,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438176</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1057.613315601761</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>888.6771326738537</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>738.560493261518</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E16" t="n">
-        <v>590.6473996791249</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1977.461080510508</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1688.043910473548</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>1460.05435957553</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>1239.261780432</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5503,52 +5503,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961526</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M18" t="n">
-        <v>740.5562989961526</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N18" t="n">
-        <v>1368.15426255076</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5734,67 +5734,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
@@ -5904,10 +5904,10 @@
         <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.7825789706076</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427007</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1803.124031597425</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1548.439543391538</v>
       </c>
       <c r="W28" t="n">
-        <v>1191.213173842395</v>
+        <v>1259.022373354577</v>
       </c>
       <c r="X28" t="n">
-        <v>963.2236229443774</v>
+        <v>1031.03282245656</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.4310438008473</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="29">
@@ -6439,55 +6439,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803938</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6682,16 +6682,16 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797189</v>
@@ -6703,25 +6703,25 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398594</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>317.6151975578601</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>317.6151975578601</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578601</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111716</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075809</v>
@@ -7198,28 +7198,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7241,31 +7241,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797747</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2269.002343845332</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192501</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7478,22 +7478,22 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327652</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048583</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925226</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>444.7013164925226</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>444.7013164925226</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>277.5052172074025</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>135.7933860496006</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797747</v>
@@ -7596,25 +7596,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741513</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704552</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806535</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.4026036630049</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="44">
@@ -7739,7 +7739,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.22910392194134</v>
       </c>
       <c r="H13" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>40.64330621514807</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>191.8807364711616</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>113.5907959652909</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>46.45968844823051</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>114.1584408891649</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219417</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>71.2204003741864</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>39.70888054695301</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>145.6085800303777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>680534.5999045506</v>
+        <v>680534.5999045507</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>680534.5999045508</v>
+        <v>680534.5999045506</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>680534.5999045506</v>
+        <v>680534.5999045507</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>680534.5999045507</v>
+        <v>680534.5999045508</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>680534.5999045508</v>
+        <v>680534.5999045507</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244628</v>
+      </c>
+      <c r="C2" t="n">
+        <v>759463.6371244622</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244624</v>
       </c>
-      <c r="C2" t="n">
-        <v>759463.6371244623</v>
-      </c>
-      <c r="D2" t="n">
-        <v>759463.6371244623</v>
-      </c>
       <c r="E2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="H2" t="n">
         <v>746610.6047132551</v>
       </c>
       <c r="I2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="K2" t="n">
         <v>746610.6047132551</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132552</v>
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.014195044670487e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26423,16 +26423,16 @@
         <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.6400068797</v>
+        <v>15436.6400068796</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687967</v>
@@ -26444,10 +26444,10 @@
         <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="L4" t="n">
         <v>15436.64000687962</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770811.7932685763</v>
+        <v>-770811.7932685757</v>
       </c>
       <c r="C6" t="n">
-        <v>557932.9524590167</v>
+        <v>557932.9524590163</v>
       </c>
       <c r="D6" t="n">
-        <v>557932.9524590165</v>
+        <v>557932.9524590163</v>
       </c>
       <c r="E6" t="n">
-        <v>304291.5938207567</v>
+        <v>304604.2351496774</v>
       </c>
       <c r="F6" t="n">
-        <v>629704.0556281118</v>
+        <v>630016.6969570331</v>
       </c>
       <c r="G6" t="n">
-        <v>629704.0556281111</v>
+        <v>630016.6969570329</v>
       </c>
       <c r="H6" t="n">
-        <v>629704.0556281115</v>
+        <v>630016.6969570327</v>
       </c>
       <c r="I6" t="n">
-        <v>629704.0556281116</v>
+        <v>630016.6969570327</v>
       </c>
       <c r="J6" t="n">
-        <v>412172.8532308339</v>
+        <v>412485.4945597552</v>
       </c>
       <c r="K6" t="n">
-        <v>629704.0556281114</v>
+        <v>630016.6969570327</v>
       </c>
       <c r="L6" t="n">
-        <v>629704.0556281114</v>
+        <v>630016.6969570329</v>
       </c>
       <c r="M6" t="n">
-        <v>544649.0276925997</v>
+        <v>544961.6690215212</v>
       </c>
       <c r="N6" t="n">
-        <v>629704.0556281114</v>
+        <v>630016.6969570328</v>
       </c>
       <c r="O6" t="n">
-        <v>629704.0556281118</v>
+        <v>630016.6969570329</v>
       </c>
       <c r="P6" t="n">
-        <v>629704.0556281114</v>
+        <v>630016.6969570328</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>11.86547352390437</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>50.1895784159959</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,13 +27545,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>91.43306518468412</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>207.0466090246044</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>270.4601319683923</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27830,19 +27830,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>204.7509947629275</v>
+        <v>94.15744254776814</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>106.001820158168</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>290.3129182374919</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.7439527351647</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>36.3916171537257</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.394985773160066e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970243</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157994</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,7 +32320,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>579.5299594447131</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>675.9520178182473</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214699</v>
@@ -32338,7 +32338,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33733,7 +33733,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043702</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33970,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34459,10 +34459,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525799</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>440.9755796648395</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324661</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>533.3557733738029</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071396</v>
@@ -35986,7 +35986,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902381</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38107,10 +38107,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
